--- a/database/sidis/expdata/2527.xlsx
+++ b/database/sidis/expdata/2527.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3269835-9A0E-4DAC-8452-6CB17904EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A61C1D-517C-AD4E-9D4B-D0FC0234755A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{8842C787-AC08-4B4E-AB58-E005A5C34890}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="13160" xr2:uid="{8842C787-AC08-4B4E-AB58-E005A5C34890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -508,13 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3C199-2E67-42D2-BFE4-0663D09C098B}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="114" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.46</v>
       </c>
@@ -632,7 +623,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.51</v>
       </c>
@@ -691,7 +682,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.54</v>
       </c>
@@ -750,7 +741,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.59</v>
       </c>
@@ -809,7 +800,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.43</v>
       </c>
@@ -868,7 +859,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.48</v>
       </c>
@@ -927,7 +918,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.52</v>
       </c>
@@ -986,7 +977,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.56</v>
       </c>
@@ -1045,7 +1036,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1.4</v>
       </c>
@@ -1104,7 +1095,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1.45</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1.49</v>
       </c>
@@ -1222,7 +1213,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1.54</v>
       </c>
@@ -1281,7 +1272,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1.38</v>
       </c>
@@ -1340,7 +1331,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1.41</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1.45</v>
       </c>
@@ -1458,7 +1449,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1.51</v>
       </c>
@@ -1517,7 +1508,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.1</v>
       </c>
@@ -1576,7 +1567,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.39</v>
       </c>
@@ -1635,7 +1626,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.4700000000000002</v>
       </c>
@@ -1694,7 +1685,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>2.73</v>
       </c>
@@ -1753,7 +1744,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1.89</v>
       </c>
@@ -1812,7 +1803,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2.14</v>
       </c>
@@ -1871,7 +1862,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -1930,7 +1921,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2.5099999999999998</v>
       </c>
@@ -1989,7 +1980,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1.83</v>
       </c>
@@ -2048,7 +2039,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1.99</v>
       </c>
@@ -2107,7 +2098,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2.1800000000000002</v>
       </c>
@@ -2166,7 +2157,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2.38</v>
       </c>
@@ -2225,7 +2216,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1.78</v>
       </c>
@@ -2284,7 +2275,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1.87</v>
       </c>
@@ -2343,7 +2334,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2.02</v>
       </c>
@@ -2402,7 +2393,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2.29</v>
       </c>
@@ -2461,7 +2452,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2.86</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>3.18</v>
       </c>
@@ -2579,7 +2570,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>3.26</v>
       </c>
@@ -2638,7 +2629,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>3.53</v>
       </c>
@@ -2697,7 +2688,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2.5299999999999998</v>
       </c>
@@ -2756,7 +2747,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2.81</v>
       </c>
@@ -2815,7 +2806,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>3.03</v>
       </c>
@@ -2874,7 +2865,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>3.21</v>
       </c>
@@ -2933,7 +2924,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2.41</v>
       </c>
@@ -2992,7 +2983,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2.5099999999999998</v>
       </c>
@@ -3051,7 +3042,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2.84</v>
       </c>
@@ -3110,7 +3101,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>3.11</v>
       </c>
@@ -3169,7 +3160,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2.38</v>
       </c>
@@ -3228,7 +3219,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>2.4</v>
       </c>
@@ -3287,7 +3278,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>2.5499999999999998</v>
       </c>
@@ -3346,7 +3337,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>2.98</v>
       </c>
@@ -3405,7 +3396,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>4.95</v>
       </c>
@@ -3464,7 +3455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>5.26</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>5.21</v>
       </c>
@@ -3582,7 +3573,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>5.42</v>
       </c>
@@ -3641,7 +3632,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>4.4800000000000004</v>
       </c>
@@ -3700,7 +3691,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>4.6399999999999997</v>
       </c>
@@ -3759,7 +3750,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>4.8899999999999997</v>
       </c>
@@ -3818,7 +3809,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>4.93</v>
       </c>
@@ -3877,7 +3868,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>4.38</v>
       </c>
@@ -3936,7 +3927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>4.38</v>
       </c>
@@ -3995,7 +3986,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>4.6500000000000004</v>
       </c>
@@ -4054,7 +4045,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>4.84</v>
       </c>
@@ -4113,7 +4104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>4.33</v>
       </c>
@@ -4172,7 +4163,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>4.28</v>
       </c>
@@ -4231,7 +4222,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>4.41</v>
       </c>
@@ -4290,12 +4281,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>4.82</v>
       </c>
       <c r="B65" s="5">
-        <v>0.11600000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C65" s="5">
         <v>0.45400000000000001</v>

--- a/database/sidis/expdata/2527.xlsx
+++ b/database/sidis/expdata/2527.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/sidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A61C1D-517C-AD4E-9D4B-D0FC0234755A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12960C37-F65A-9B48-822D-B71592A5E0FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="13160" xr2:uid="{8842C787-AC08-4B4E-AB58-E005A5C34890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>pi+</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -497,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3C199-2E67-42D2-BFE4-0663D09C098B}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="114" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="114" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +566,11 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1.46</v>
       </c>
@@ -622,8 +628,11 @@
       <c r="S2" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1.51</v>
       </c>
@@ -681,8 +690,11 @@
       <c r="S3" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1.54</v>
       </c>
@@ -740,8 +752,11 @@
       <c r="S4" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1.59</v>
       </c>
@@ -799,8 +814,11 @@
       <c r="S5" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.43</v>
       </c>
@@ -858,8 +876,11 @@
       <c r="S6" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.48</v>
       </c>
@@ -917,8 +938,11 @@
       <c r="S7" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.52</v>
       </c>
@@ -976,8 +1000,11 @@
       <c r="S8" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.56</v>
       </c>
@@ -1035,8 +1062,11 @@
       <c r="S9" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1.4</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="S10" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1.45</v>
       </c>
@@ -1153,8 +1186,11 @@
       <c r="S11" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1.49</v>
       </c>
@@ -1212,8 +1248,11 @@
       <c r="S12" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1.54</v>
       </c>
@@ -1271,8 +1310,11 @@
       <c r="S13" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1.38</v>
       </c>
@@ -1330,8 +1372,11 @@
       <c r="S14" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1.41</v>
       </c>
@@ -1389,8 +1434,11 @@
       <c r="S15" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1.45</v>
       </c>
@@ -1448,8 +1496,11 @@
       <c r="S16" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1.51</v>
       </c>
@@ -1507,8 +1558,11 @@
       <c r="S17" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2.1</v>
       </c>
@@ -1566,8 +1620,11 @@
       <c r="S18" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2.39</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="S19" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2.4700000000000002</v>
       </c>
@@ -1684,8 +1744,11 @@
       <c r="S20" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>2.73</v>
       </c>
@@ -1743,8 +1806,11 @@
       <c r="S21" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1.89</v>
       </c>
@@ -1802,8 +1868,11 @@
       <c r="S22" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2.14</v>
       </c>
@@ -1861,8 +1930,11 @@
       <c r="S23" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -1920,8 +1992,11 @@
       <c r="S24" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2.5099999999999998</v>
       </c>
@@ -1979,8 +2054,11 @@
       <c r="S25" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1.83</v>
       </c>
@@ -2038,8 +2116,11 @@
       <c r="S26" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1.99</v>
       </c>
@@ -2097,8 +2178,11 @@
       <c r="S27" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2.1800000000000002</v>
       </c>
@@ -2156,8 +2240,11 @@
       <c r="S28" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2.38</v>
       </c>
@@ -2215,8 +2302,11 @@
       <c r="S29" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1.78</v>
       </c>
@@ -2274,8 +2364,11 @@
       <c r="S30" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1.87</v>
       </c>
@@ -2333,8 +2426,11 @@
       <c r="S31" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2.02</v>
       </c>
@@ -2392,8 +2488,11 @@
       <c r="S32" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2.29</v>
       </c>
@@ -2451,8 +2550,11 @@
       <c r="S33" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2.86</v>
       </c>
@@ -2510,8 +2612,11 @@
       <c r="S34" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>3.18</v>
       </c>
@@ -2569,8 +2674,11 @@
       <c r="S35" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>3.26</v>
       </c>
@@ -2628,8 +2736,11 @@
       <c r="S36" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>3.53</v>
       </c>
@@ -2687,8 +2798,11 @@
       <c r="S37" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2.5299999999999998</v>
       </c>
@@ -2746,8 +2860,11 @@
       <c r="S38" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2.81</v>
       </c>
@@ -2805,8 +2922,11 @@
       <c r="S39" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>3.03</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S40" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>3.21</v>
       </c>
@@ -2923,8 +3046,11 @@
       <c r="S41" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2.41</v>
       </c>
@@ -2982,8 +3108,11 @@
       <c r="S42" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2.5099999999999998</v>
       </c>
@@ -3041,8 +3170,11 @@
       <c r="S43" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2.84</v>
       </c>
@@ -3100,8 +3232,11 @@
       <c r="S44" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>3.11</v>
       </c>
@@ -3159,8 +3294,11 @@
       <c r="S45" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2.38</v>
       </c>
@@ -3218,8 +3356,11 @@
       <c r="S46" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>2.4</v>
       </c>
@@ -3277,8 +3418,11 @@
       <c r="S47" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>2.5499999999999998</v>
       </c>
@@ -3336,8 +3480,11 @@
       <c r="S48" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>2.98</v>
       </c>
@@ -3395,8 +3542,11 @@
       <c r="S49" s="4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>4.95</v>
       </c>
@@ -3454,8 +3604,11 @@
       <c r="S50" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>5.26</v>
       </c>
@@ -3513,8 +3666,11 @@
       <c r="S51" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>5.21</v>
       </c>
@@ -3572,8 +3728,11 @@
       <c r="S52" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>5.42</v>
       </c>
@@ -3631,8 +3790,11 @@
       <c r="S53" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>4.4800000000000004</v>
       </c>
@@ -3690,8 +3852,11 @@
       <c r="S54" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>4.6399999999999997</v>
       </c>
@@ -3749,8 +3914,11 @@
       <c r="S55" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>4.8899999999999997</v>
       </c>
@@ -3808,8 +3976,11 @@
       <c r="S56" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>4.93</v>
       </c>
@@ -3867,8 +4038,11 @@
       <c r="S57" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>4.38</v>
       </c>
@@ -3926,8 +4100,11 @@
       <c r="S58" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>4.38</v>
       </c>
@@ -3985,8 +4162,11 @@
       <c r="S59" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>4.6500000000000004</v>
       </c>
@@ -4044,8 +4224,11 @@
       <c r="S60" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>4.84</v>
       </c>
@@ -4103,8 +4286,11 @@
       <c r="S61" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>4.33</v>
       </c>
@@ -4162,8 +4348,11 @@
       <c r="S62" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>4.28</v>
       </c>
@@ -4221,8 +4410,11 @@
       <c r="S63" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>4.41</v>
       </c>
@@ -4280,8 +4472,11 @@
       <c r="S64" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>4.82</v>
       </c>
@@ -4338,6 +4533,9 @@
       </c>
       <c r="S65" s="4">
         <v>0.6</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
